--- a/common/RewardConfigure.xlsx
+++ b/common/RewardConfigure.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>序号</t>
   </si>
@@ -23,13 +23,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">获取方式
 </t>
     </r>
@@ -42,11 +35,18 @@
       </rPr>
       <t>1=全部获取
 2=权重获取
-3=多选一获取</t>
+3=玩家多选一获取</t>
     </r>
   </si>
   <si>
-    <t>道具id</t>
+    <t>奖励类型
+1=道具
+2=奖励组</t>
+  </si>
+  <si>
+    <t>奖励id
+道具=道具id
+奖励组=奖励组id</t>
   </si>
   <si>
     <t>道具数量</t>
@@ -125,14 +125,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">item_id </t>
+      <t xml:space="preserve">Reward_type </t>
     </r>
     <r>
       <rPr>
@@ -155,7 +148,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">item_num </t>
+      <t xml:space="preserve">item_id </t>
     </r>
     <r>
       <rPr>
@@ -171,7 +164,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">weight </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">item_num </t>
     </r>
     <r>
       <rPr>
@@ -185,18 +185,41 @@
       <t>int</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">weight </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +236,122 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,89 +365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -319,23 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -344,14 +381,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,49 +431,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,115 +563,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,6 +667,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -663,17 +708,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,15 +728,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,16 +775,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,119 +793,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +915,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -893,6 +926,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1218,61 +1254,70 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54.75" spans="1:6">
+    <row r="1" ht="68.25" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="27.75" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" ht="27.75" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="14:14">
+      <c r="N19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
